--- a/Code/Results/Cases/Case_0_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_161/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.503883447607365</v>
+        <v>4.917742342958388</v>
       </c>
       <c r="D2">
-        <v>7.840702904806481</v>
+        <v>8.316818503261121</v>
       </c>
       <c r="E2">
-        <v>21.27014251300231</v>
+        <v>14.47219969740644</v>
       </c>
       <c r="F2">
-        <v>15.89829585248679</v>
+        <v>28.26786915847341</v>
       </c>
       <c r="G2">
-        <v>1.984231898529363</v>
+        <v>3.634766048845353</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.95745162336038</v>
+        <v>9.986270084265003</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>100.4906902274587</v>
+        <v>59.45321102715619</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.83124869737308</v>
+        <v>22.87115159022751</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.938198705637842</v>
+        <v>4.749969378258453</v>
       </c>
       <c r="D3">
-        <v>7.235085813048094</v>
+        <v>8.271155819216194</v>
       </c>
       <c r="E3">
-        <v>19.44875497553594</v>
+        <v>14.12755170890717</v>
       </c>
       <c r="F3">
-        <v>13.55494344722479</v>
+        <v>28.83485314175936</v>
       </c>
       <c r="G3">
-        <v>2.002284639189287</v>
+        <v>3.639340483171709</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.77185718639869</v>
+        <v>9.870200979023961</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>92.76073850793267</v>
+        <v>56.04813396013238</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.97135405554083</v>
+        <v>23.17593905720902</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.578436306826424</v>
+        <v>4.645672434795215</v>
       </c>
       <c r="D4">
-        <v>6.86029988818728</v>
+        <v>8.244978271907659</v>
       </c>
       <c r="E4">
-        <v>18.33203103093905</v>
+        <v>13.91736430526287</v>
       </c>
       <c r="F4">
-        <v>12.31740062428103</v>
+        <v>29.20196513518149</v>
       </c>
       <c r="G4">
-        <v>2.013096923241032</v>
+        <v>3.642266832652225</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.04338871158207</v>
+        <v>9.802418069002709</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>87.91970541696317</v>
+        <v>53.84097479413966</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.89844559065174</v>
+        <v>23.37744841904998</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.428421702294597</v>
+        <v>4.602921816618641</v>
       </c>
       <c r="D5">
-        <v>6.755141468663223</v>
+        <v>8.234785319342253</v>
       </c>
       <c r="E5">
-        <v>17.87469484061099</v>
+        <v>13.83219487923201</v>
       </c>
       <c r="F5">
-        <v>11.88016497199157</v>
+        <v>29.35626824619308</v>
       </c>
       <c r="G5">
-        <v>2.01746279543412</v>
+        <v>3.643489124441372</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.74464915823235</v>
+        <v>9.775693631376454</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85.9151766375261</v>
+        <v>52.9125288738847</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.49806396731071</v>
+        <v>23.46310542460593</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.403298902155022</v>
+        <v>4.595810354940393</v>
       </c>
       <c r="D6">
-        <v>6.740298185973091</v>
+        <v>8.233121650500355</v>
       </c>
       <c r="E6">
-        <v>17.7985537313679</v>
+        <v>13.81808548657684</v>
       </c>
       <c r="F6">
-        <v>11.853433452562</v>
+        <v>29.38217218941338</v>
       </c>
       <c r="G6">
-        <v>2.018186004717608</v>
+        <v>3.643693889553909</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.69488726947083</v>
+        <v>9.771310875515486</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85.58021396523858</v>
+        <v>52.7566184140152</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.46956964617423</v>
+        <v>23.47754046780102</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.576427287513348</v>
+        <v>4.645096790382016</v>
       </c>
       <c r="D7">
-        <v>6.858227035215044</v>
+        <v>8.244838875492615</v>
       </c>
       <c r="E7">
-        <v>18.32587537871325</v>
+        <v>13.91621355486155</v>
       </c>
       <c r="F7">
-        <v>12.31107886917709</v>
+        <v>29.20402717193308</v>
       </c>
       <c r="G7">
-        <v>2.013155933812371</v>
+        <v>3.642283196061312</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.03936941077489</v>
+        <v>9.80205399192698</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>87.89280924785058</v>
+        <v>53.82857049805555</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.89269688200917</v>
+        <v>23.37858937842231</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.311222520575019</v>
+        <v>4.860203322702902</v>
       </c>
       <c r="D8">
-        <v>7.631969194787806</v>
+        <v>8.300692375637214</v>
       </c>
       <c r="E8">
-        <v>20.63991576836433</v>
+        <v>14.35314217652524</v>
       </c>
       <c r="F8">
-        <v>15.0481266939693</v>
+        <v>28.45938092798213</v>
       </c>
       <c r="G8">
-        <v>1.990532617888807</v>
+        <v>3.636319023726463</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.54753885668326</v>
+        <v>9.945539719150345</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>97.83955753492245</v>
+        <v>58.30343977742112</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.17411360193054</v>
+        <v>22.97321525337693</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.671564278634095</v>
+        <v>5.268880682295394</v>
       </c>
       <c r="D9">
-        <v>9.179294795659766</v>
+        <v>8.424655089146906</v>
       </c>
       <c r="E9">
-        <v>25.37675090778533</v>
+        <v>15.21605777287157</v>
       </c>
       <c r="F9">
-        <v>22.15182449587819</v>
+        <v>27.15326519261207</v>
       </c>
       <c r="G9">
-        <v>1.942094748911643</v>
+        <v>3.625547090640773</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.62146505681492</v>
+        <v>10.25355341165983</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>117.1334576879301</v>
+        <v>66.14702533219976</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.36521825613159</v>
+        <v>22.29572318721957</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.665115772196758</v>
+        <v>5.557578396818967</v>
       </c>
       <c r="D10">
-        <v>10.48214144787287</v>
+        <v>8.524087795835781</v>
       </c>
       <c r="E10">
-        <v>29.47793165486155</v>
+        <v>15.84719759033394</v>
       </c>
       <c r="F10">
-        <v>29.11271493085589</v>
+        <v>26.29306517421236</v>
       </c>
       <c r="G10">
-        <v>1.899065638184589</v>
+        <v>3.618182283603474</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.27026695884265</v>
+        <v>10.49468919468748</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>132.6026280370754</v>
+        <v>71.33568839428135</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.12299428554471</v>
+        <v>21.87456701208706</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.14006899781011</v>
+        <v>5.685775116941544</v>
       </c>
       <c r="D11">
-        <v>11.20730038192496</v>
+        <v>8.571039004193649</v>
       </c>
       <c r="E11">
-        <v>31.79593629249631</v>
+        <v>16.13245860968845</v>
       </c>
       <c r="F11">
-        <v>33.17670767038345</v>
+        <v>25.92471066894415</v>
       </c>
       <c r="G11">
-        <v>1.874847825128877</v>
+        <v>3.614948005816924</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.76131781832285</v>
+        <v>10.60730229053348</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>140.8718032552348</v>
+        <v>73.57118553681846</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.82284690952588</v>
+        <v>21.70077385544278</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.32921424834309</v>
+        <v>5.733824541540144</v>
       </c>
       <c r="D12">
-        <v>11.52725994252594</v>
+        <v>8.589056811257262</v>
       </c>
       <c r="E12">
-        <v>32.82406809733411</v>
+        <v>16.24012103976469</v>
       </c>
       <c r="F12">
-        <v>34.9865425286909</v>
+        <v>25.78865864299384</v>
       </c>
       <c r="G12">
-        <v>1.864217942019703</v>
+        <v>3.613739695468108</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.42098847773669</v>
+        <v>10.65033965540217</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>144.4245237792221</v>
+        <v>74.39977112940458</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.00986481374038</v>
+        <v>21.63762527776229</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.28785366590489</v>
+        <v>5.723498957713913</v>
       </c>
       <c r="D13">
-        <v>11.45536029325332</v>
+        <v>8.585165890703305</v>
       </c>
       <c r="E13">
-        <v>32.59281879369262</v>
+        <v>16.21695141337405</v>
       </c>
       <c r="F13">
-        <v>34.57952742993559</v>
+        <v>25.81780476494914</v>
       </c>
       <c r="G13">
-        <v>1.866600885159705</v>
+        <v>3.613999199460633</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.27271081887135</v>
+        <v>10.64105371804385</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>143.6322772524351</v>
+        <v>74.22211829261951</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.74371062709241</v>
+        <v>21.65110529001717</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.15537457337786</v>
+        <v>5.689738350883925</v>
       </c>
       <c r="D14">
-        <v>11.23239737839234</v>
+        <v>8.572516612367867</v>
       </c>
       <c r="E14">
-        <v>31.87648524516402</v>
+        <v>16.14132378007207</v>
       </c>
       <c r="F14">
-        <v>33.3184814391221</v>
+        <v>25.91344790254555</v>
       </c>
       <c r="G14">
-        <v>1.874011920587482</v>
+        <v>3.614848269319877</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.81303904436808</v>
+        <v>10.61083527021187</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>141.1529716333077</v>
+        <v>73.63971336170822</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.91616321672338</v>
+        <v>21.69552459366258</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.07576622204272</v>
+        <v>5.668993171659044</v>
       </c>
       <c r="D15">
-        <v>11.10323083048896</v>
+        <v>8.564799350914512</v>
       </c>
       <c r="E15">
-        <v>31.46212310319104</v>
+        <v>16.0949501802551</v>
       </c>
       <c r="F15">
-        <v>32.58934057195395</v>
+        <v>25.97248378793777</v>
       </c>
       <c r="G15">
-        <v>1.878316990414616</v>
+        <v>3.615370482848892</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.54690434804202</v>
+        <v>10.59237602725283</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>139.701455116272</v>
+        <v>73.28063670869524</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.43563182310622</v>
+        <v>21.72308270883185</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.634889614287665</v>
+        <v>5.549133390851542</v>
       </c>
       <c r="D16">
-        <v>10.43890740225475</v>
+        <v>8.521053262612693</v>
       </c>
       <c r="E16">
-        <v>29.34040546445466</v>
+        <v>15.8285096974629</v>
       </c>
       <c r="F16">
-        <v>28.87327843459983</v>
+        <v>26.31761112374593</v>
       </c>
       <c r="G16">
-        <v>1.900509387481748</v>
+        <v>3.618395965203572</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.18165318081496</v>
+        <v>10.48738612834723</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>132.1032995730039</v>
+        <v>71.18708081678244</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.962356575828</v>
+        <v>21.88629165638683</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.372690676860081</v>
+        <v>5.47476679638054</v>
       </c>
       <c r="D17">
-        <v>10.07520889149582</v>
+        <v>8.494650459526371</v>
       </c>
       <c r="E17">
-        <v>28.18705104305665</v>
+        <v>15.66451423557874</v>
       </c>
       <c r="F17">
-        <v>26.87742706647569</v>
+        <v>26.53530634597909</v>
       </c>
       <c r="G17">
-        <v>1.912629262403779</v>
+        <v>3.620281544102542</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.43789322531583</v>
+        <v>10.42370691482705</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>127.8621167636143</v>
+        <v>69.87076864998119</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.61589492067779</v>
+        <v>21.99104494511542</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.223551188107566</v>
+        <v>5.431700528591175</v>
       </c>
       <c r="D18">
-        <v>9.876316297328076</v>
+        <v>8.479626573225167</v>
       </c>
       <c r="E18">
-        <v>27.5592067618511</v>
+        <v>15.57001956148034</v>
       </c>
       <c r="F18">
-        <v>25.80216673323899</v>
+        <v>26.66267057612285</v>
       </c>
       <c r="G18">
-        <v>1.919228507474486</v>
+        <v>3.62137701354099</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.03258159742196</v>
+        <v>10.38735666405402</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>125.5133946063915</v>
+        <v>69.10190673537471</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.88460427691012</v>
+        <v>22.05296444057391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.173254675711174</v>
+        <v>5.417070251505733</v>
       </c>
       <c r="D19">
-        <v>9.810386007633884</v>
+        <v>8.474567885982481</v>
       </c>
       <c r="E19">
-        <v>27.35156156688715</v>
+        <v>15.53799929914085</v>
       </c>
       <c r="F19">
-        <v>25.44863674644792</v>
+        <v>26.70615959402782</v>
       </c>
       <c r="G19">
-        <v>1.921410131946338</v>
+        <v>3.62174980588394</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.89846929656203</v>
+        <v>10.37509737140078</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>124.7304562370887</v>
+        <v>68.83956487744814</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.64319316591264</v>
+        <v>22.07421272990515</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.400406707422331</v>
+        <v>5.482713872680358</v>
       </c>
       <c r="D20">
-        <v>10.11276621294918</v>
+        <v>8.497444348056646</v>
       </c>
       <c r="E20">
-        <v>28.30584448432398</v>
+        <v>15.68199001345154</v>
       </c>
       <c r="F20">
-        <v>27.0818551665275</v>
+        <v>26.51190869408706</v>
       </c>
       <c r="G20">
-        <v>1.91138044434606</v>
+        <v>3.620079691074257</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.51454785399122</v>
+        <v>10.43045726830749</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>128.3033569461517</v>
+        <v>70.01210887424531</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.75444326205105</v>
+        <v>21.97972038873253</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.19393845260173</v>
+        <v>5.699668452368846</v>
       </c>
       <c r="D21">
-        <v>11.29621539625442</v>
+        <v>8.5762256116787</v>
       </c>
       <c r="E21">
-        <v>32.08138868587449</v>
+        <v>16.16354791860728</v>
       </c>
       <c r="F21">
-        <v>33.67917722688443</v>
+        <v>25.88526079829321</v>
       </c>
       <c r="G21">
-        <v>1.871887747959257</v>
+        <v>3.61459843269529</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.94457983102874</v>
+        <v>10.61970069818087</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>141.8660506090212</v>
+        <v>73.811266750857</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.15332007630563</v>
+        <v>21.68240443171767</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.78457418517326</v>
+        <v>5.838553082351649</v>
       </c>
       <c r="D22">
-        <v>12.41956485627521</v>
+        <v>8.629099255633776</v>
       </c>
       <c r="E22">
-        <v>35.69930633630604</v>
+        <v>16.47613960308367</v>
       </c>
       <c r="F22">
-        <v>40.01963105926033</v>
+        <v>25.49581025068255</v>
       </c>
       <c r="G22">
-        <v>1.83509156617498</v>
+        <v>3.611111823182579</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.25945848593857</v>
+        <v>10.74566230826805</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>153.9435428483608</v>
+        <v>76.18963869571334</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>32.26327584081415</v>
+        <v>21.50366624567863</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.45578692311916</v>
+        <v>5.764707397592246</v>
       </c>
       <c r="D23">
-        <v>11.75508302668042</v>
+        <v>8.600755715557003</v>
       </c>
       <c r="E23">
-        <v>33.55745378049298</v>
+        <v>16.30952764660704</v>
       </c>
       <c r="F23">
-        <v>36.27622433283671</v>
+        <v>25.70177969055787</v>
       </c>
       <c r="G23">
-        <v>1.856695392162458</v>
+        <v>3.612964016768765</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.89085004728127</v>
+        <v>10.67823424673887</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>146.9107889229734</v>
+        <v>74.9298188137013</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.85018834585222</v>
+        <v>21.59760115395501</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.387871595589312</v>
+        <v>5.47912196755574</v>
       </c>
       <c r="D24">
-        <v>10.09575601489505</v>
+        <v>8.49618074623705</v>
       </c>
       <c r="E24">
-        <v>28.25203228713485</v>
+        <v>15.67408986581282</v>
       </c>
       <c r="F24">
-        <v>26.98921518613048</v>
+        <v>26.52247990402518</v>
       </c>
       <c r="G24">
-        <v>1.911946145008383</v>
+        <v>3.620170913223572</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.47982545292363</v>
+        <v>10.42740462233064</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>128.1036045673019</v>
+        <v>69.94824663686799</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.69167643944767</v>
+        <v>21.98483494762278</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.309020450113495</v>
+        <v>5.160119058634513</v>
       </c>
       <c r="D25">
-        <v>8.747574391319803</v>
+        <v>8.389619303891406</v>
       </c>
       <c r="E25">
-        <v>24.03987247624396</v>
+        <v>14.98266726669127</v>
       </c>
       <c r="F25">
-        <v>20.00701447024705</v>
+        <v>27.48957853842506</v>
       </c>
       <c r="G25">
-        <v>1.955980754336697</v>
+        <v>3.628363690831243</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.7554735385356</v>
+        <v>10.16751768712346</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>111.838384554975</v>
+        <v>64.12568954370343</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.8509147574738</v>
+        <v>22.46593039346013</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_161/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.917742342958388</v>
+        <v>7.503883447607372</v>
       </c>
       <c r="D2">
-        <v>8.316818503261121</v>
+        <v>7.840702904806488</v>
       </c>
       <c r="E2">
-        <v>14.47219969740644</v>
+        <v>21.27014251300235</v>
       </c>
       <c r="F2">
-        <v>28.26786915847341</v>
+        <v>15.89829585248659</v>
       </c>
       <c r="G2">
-        <v>3.634766048845353</v>
+        <v>1.984231898529632</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.986270084265003</v>
+        <v>13.95745162336041</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>59.45321102715619</v>
+        <v>100.4906902274588</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.87115159022751</v>
+        <v>15.83124869737291</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749969378258453</v>
+        <v>6.93819870563785</v>
       </c>
       <c r="D3">
-        <v>8.271155819216194</v>
+        <v>7.235085813048137</v>
       </c>
       <c r="E3">
-        <v>14.12755170890717</v>
+        <v>19.448754975536</v>
       </c>
       <c r="F3">
-        <v>28.83485314175936</v>
+        <v>13.55494344722482</v>
       </c>
       <c r="G3">
-        <v>3.639340483171709</v>
+        <v>2.002284639189151</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.870200979023961</v>
+        <v>12.77185718639867</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>56.04813396013238</v>
+        <v>92.76073850793276</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.17593905720902</v>
+        <v>13.97135405554081</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.645672434795215</v>
+        <v>6.578436306826424</v>
       </c>
       <c r="D4">
-        <v>8.244978271907659</v>
+        <v>6.860299888187275</v>
       </c>
       <c r="E4">
-        <v>13.91736430526287</v>
+        <v>18.33203103093905</v>
       </c>
       <c r="F4">
-        <v>29.20196513518149</v>
+        <v>12.31740062428094</v>
       </c>
       <c r="G4">
-        <v>3.642266832652225</v>
+        <v>2.0130969232413</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.802418069002709</v>
+        <v>12.04338871158208</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>53.84097479413966</v>
+        <v>87.91970541696323</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.37744841904998</v>
+        <v>12.89844559065167</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602921816618641</v>
+        <v>6.428421702294596</v>
       </c>
       <c r="D5">
-        <v>8.234785319342253</v>
+        <v>6.755141468663159</v>
       </c>
       <c r="E5">
-        <v>13.83219487923201</v>
+        <v>17.87469484061099</v>
       </c>
       <c r="F5">
-        <v>29.35626824619308</v>
+        <v>11.88016497199159</v>
       </c>
       <c r="G5">
-        <v>3.643489124441372</v>
+        <v>2.017462795433985</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.775693631376454</v>
+        <v>11.74464915823235</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>52.9125288738847</v>
+        <v>85.91517663752599</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.46310542460593</v>
+        <v>12.49806396731075</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.595810354940393</v>
+        <v>6.403298902155012</v>
       </c>
       <c r="D6">
-        <v>8.233121650500355</v>
+        <v>6.740298185973077</v>
       </c>
       <c r="E6">
-        <v>13.81808548657684</v>
+        <v>17.79855373136795</v>
       </c>
       <c r="F6">
-        <v>29.38217218941338</v>
+        <v>11.85343345256199</v>
       </c>
       <c r="G6">
-        <v>3.643693889553909</v>
+        <v>2.018186004717609</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.771310875515486</v>
+        <v>11.69488726947089</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>52.7566184140152</v>
+        <v>85.58021396523874</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.47754046780102</v>
+        <v>12.46956964617423</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.645096790382016</v>
+        <v>6.576427287513306</v>
       </c>
       <c r="D7">
-        <v>8.244838875492615</v>
+        <v>6.858227035215035</v>
       </c>
       <c r="E7">
-        <v>13.91621355486155</v>
+        <v>18.32587537871316</v>
       </c>
       <c r="F7">
-        <v>29.20402717193308</v>
+        <v>12.31107886917706</v>
       </c>
       <c r="G7">
-        <v>3.642283196061312</v>
+        <v>2.013155933812371</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.80205399192698</v>
+        <v>12.03936941077485</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>53.82857049805555</v>
+        <v>87.89280924785028</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.37858937842231</v>
+        <v>12.89269688200912</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860203322702902</v>
+        <v>7.311222520574963</v>
       </c>
       <c r="D8">
-        <v>8.300692375637214</v>
+        <v>7.63196919478785</v>
       </c>
       <c r="E8">
-        <v>14.35314217652524</v>
+        <v>20.63991576836433</v>
       </c>
       <c r="F8">
-        <v>28.45938092798213</v>
+        <v>15.04812669396895</v>
       </c>
       <c r="G8">
-        <v>3.636319023726463</v>
+        <v>1.990532617888672</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.945539719150345</v>
+        <v>13.54753885668325</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58.30343977742112</v>
+        <v>97.83955753492253</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.97321525337693</v>
+        <v>15.17411360193024</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.268880682295394</v>
+        <v>8.671564278634104</v>
       </c>
       <c r="D9">
-        <v>8.424655089146906</v>
+        <v>9.179294795659827</v>
       </c>
       <c r="E9">
-        <v>15.21605777287157</v>
+        <v>25.37675090778545</v>
       </c>
       <c r="F9">
-        <v>27.15326519261207</v>
+        <v>22.15182449587818</v>
       </c>
       <c r="G9">
-        <v>3.625547090640773</v>
+        <v>1.942094748911644</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.25355341165983</v>
+        <v>16.62146505681497</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>66.14702533219976</v>
+        <v>117.1334576879302</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.29572318721957</v>
+        <v>20.36521825613155</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.557578396818967</v>
+        <v>9.665115772196748</v>
       </c>
       <c r="D10">
-        <v>8.524087795835781</v>
+        <v>10.48214144787295</v>
       </c>
       <c r="E10">
-        <v>15.84719759033394</v>
+        <v>29.47793165486172</v>
       </c>
       <c r="F10">
-        <v>26.29306517421236</v>
+        <v>29.11271493085615</v>
       </c>
       <c r="G10">
-        <v>3.618182283603474</v>
+        <v>1.899065638184322</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.49468919468748</v>
+        <v>19.27026695884277</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.33568839428135</v>
+        <v>132.602628037076</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.87456701208706</v>
+        <v>25.12299428554486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.685775116941544</v>
+        <v>10.14006899781011</v>
       </c>
       <c r="D11">
-        <v>8.571039004193649</v>
+        <v>11.20730038192504</v>
       </c>
       <c r="E11">
-        <v>16.13245860968845</v>
+        <v>31.7959362924964</v>
       </c>
       <c r="F11">
-        <v>25.92471066894415</v>
+        <v>33.17670767038341</v>
       </c>
       <c r="G11">
-        <v>3.614948005816924</v>
+        <v>1.87484782512901</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.60730229053348</v>
+        <v>20.76131781832291</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>73.57118553681846</v>
+        <v>140.8718032552347</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.70077385544278</v>
+        <v>27.82284690952582</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.733824541540144</v>
+        <v>10.32921424834314</v>
       </c>
       <c r="D12">
-        <v>8.589056811257262</v>
+        <v>11.52725994252595</v>
       </c>
       <c r="E12">
-        <v>16.24012103976469</v>
+        <v>32.8240680973339</v>
       </c>
       <c r="F12">
-        <v>25.78865864299384</v>
+        <v>34.98654252869031</v>
       </c>
       <c r="G12">
-        <v>3.613739695468108</v>
+        <v>1.86421794201997</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.65033965540217</v>
+        <v>21.42098847773648</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74.39977112940458</v>
+        <v>144.4245237792213</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.63762527776229</v>
+        <v>29.00986481373995</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.723498957713913</v>
+        <v>10.28785366590493</v>
       </c>
       <c r="D13">
-        <v>8.585165890703305</v>
+        <v>11.45536029325324</v>
       </c>
       <c r="E13">
-        <v>16.21695141337405</v>
+        <v>32.59281879369253</v>
       </c>
       <c r="F13">
-        <v>25.81780476494914</v>
+        <v>34.57952742993527</v>
       </c>
       <c r="G13">
-        <v>3.613999199460633</v>
+        <v>1.866600885159705</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.64105371804385</v>
+        <v>21.27271081887131</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>74.22211829261951</v>
+        <v>143.6322772524349</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.65110529001717</v>
+        <v>28.74371062709223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.689738350883925</v>
+        <v>10.15537457337785</v>
       </c>
       <c r="D14">
-        <v>8.572516612367867</v>
+        <v>11.23239737839233</v>
       </c>
       <c r="E14">
-        <v>16.14132378007207</v>
+        <v>31.87648524516403</v>
       </c>
       <c r="F14">
-        <v>25.91344790254555</v>
+        <v>33.3184814391219</v>
       </c>
       <c r="G14">
-        <v>3.614848269319877</v>
+        <v>1.874011920587612</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.61083527021187</v>
+        <v>20.81303904436808</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>73.63971336170822</v>
+        <v>141.1529716333077</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.69552459366258</v>
+        <v>27.91616321672321</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.668993171659044</v>
+        <v>10.07576622204273</v>
       </c>
       <c r="D15">
-        <v>8.564799350914512</v>
+        <v>11.10323083048891</v>
       </c>
       <c r="E15">
-        <v>16.0949501802551</v>
+        <v>31.46212310319102</v>
       </c>
       <c r="F15">
-        <v>25.97248378793777</v>
+        <v>32.58934057195327</v>
       </c>
       <c r="G15">
-        <v>3.615370482848892</v>
+        <v>1.878316990414616</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.59237602725283</v>
+        <v>20.54690434804202</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>73.28063670869524</v>
+        <v>139.7014551162718</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.72308270883185</v>
+        <v>27.43563182310578</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.549133390851542</v>
+        <v>9.634889614287619</v>
       </c>
       <c r="D16">
-        <v>8.521053262612693</v>
+        <v>10.43890740225482</v>
       </c>
       <c r="E16">
-        <v>15.8285096974629</v>
+        <v>29.34040546445467</v>
       </c>
       <c r="F16">
-        <v>26.31761112374593</v>
+        <v>28.87327843459978</v>
       </c>
       <c r="G16">
-        <v>3.618395965203572</v>
+        <v>1.900509387481748</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.48738612834723</v>
+        <v>19.18165318081497</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>71.18708081678244</v>
+        <v>132.1032995730039</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.88629165638683</v>
+        <v>24.96235657582795</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.47476679638054</v>
+        <v>9.372690676860158</v>
       </c>
       <c r="D17">
-        <v>8.494650459526371</v>
+        <v>10.07520889149586</v>
       </c>
       <c r="E17">
-        <v>15.66451423557874</v>
+        <v>28.18705104305669</v>
       </c>
       <c r="F17">
-        <v>26.53530634597909</v>
+        <v>26.87742706647561</v>
       </c>
       <c r="G17">
-        <v>3.620281544102542</v>
+        <v>1.912629262403779</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.42370691482705</v>
+        <v>18.43789322531587</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.87076864998119</v>
+        <v>127.8621167636144</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.99104494511542</v>
+        <v>23.61589492067771</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.431700528591175</v>
+        <v>9.223551188107558</v>
       </c>
       <c r="D18">
-        <v>8.479626573225167</v>
+        <v>9.876316297328119</v>
       </c>
       <c r="E18">
-        <v>15.57001956148034</v>
+        <v>27.55920676185112</v>
       </c>
       <c r="F18">
-        <v>26.66267057612285</v>
+        <v>25.80216673323903</v>
       </c>
       <c r="G18">
-        <v>3.62137701354099</v>
+        <v>1.919228507474752</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.38735666405402</v>
+        <v>18.03258159742197</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>69.10190673537471</v>
+        <v>125.5133946063916</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.05296444057391</v>
+        <v>22.88460427691014</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.417070251505733</v>
+        <v>9.173254675711059</v>
       </c>
       <c r="D19">
-        <v>8.474567885982481</v>
+        <v>9.810386007634007</v>
       </c>
       <c r="E19">
-        <v>15.53799929914085</v>
+        <v>27.3515615668872</v>
       </c>
       <c r="F19">
-        <v>26.70615959402782</v>
+        <v>25.44863674644752</v>
       </c>
       <c r="G19">
-        <v>3.62174980588394</v>
+        <v>1.921410131946607</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.37509737140078</v>
+        <v>17.89846929656199</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>68.83956487744814</v>
+        <v>124.7304562370889</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.07421272990515</v>
+        <v>22.64319316591225</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.482713872680358</v>
+        <v>9.400406707422214</v>
       </c>
       <c r="D20">
-        <v>8.497444348056646</v>
+        <v>10.11276621294923</v>
       </c>
       <c r="E20">
-        <v>15.68199001345154</v>
+        <v>28.30584448432391</v>
       </c>
       <c r="F20">
-        <v>26.51190869408706</v>
+        <v>27.08185516652718</v>
       </c>
       <c r="G20">
-        <v>3.620079691074257</v>
+        <v>1.911380444345927</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.43045726830749</v>
+        <v>18.51454785399113</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>70.01210887424531</v>
+        <v>128.3033569461513</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.97972038873253</v>
+        <v>23.7544432620508</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.699668452368846</v>
+        <v>10.1939384526017</v>
       </c>
       <c r="D21">
-        <v>8.5762256116787</v>
+        <v>11.2962153962545</v>
       </c>
       <c r="E21">
-        <v>16.16354791860728</v>
+        <v>32.08138868587453</v>
       </c>
       <c r="F21">
-        <v>25.88526079829321</v>
+        <v>33.67917722688398</v>
       </c>
       <c r="G21">
-        <v>3.61459843269529</v>
+        <v>1.871887747959258</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.61970069818087</v>
+        <v>20.94457983102878</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>73.811266750857</v>
+        <v>141.8660506090211</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.68240443171767</v>
+        <v>28.1533200763053</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.838553082351649</v>
+        <v>10.78457418517317</v>
       </c>
       <c r="D22">
-        <v>8.629099255633776</v>
+        <v>12.41956485627507</v>
       </c>
       <c r="E22">
-        <v>16.47613960308367</v>
+        <v>35.69930633630576</v>
       </c>
       <c r="F22">
-        <v>25.49581025068255</v>
+        <v>40.01963105926005</v>
       </c>
       <c r="G22">
-        <v>3.611111823182579</v>
+        <v>1.835091566174977</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.74566230826805</v>
+        <v>23.25945848593837</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>76.18963869571334</v>
+        <v>153.9435428483601</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.50366624567863</v>
+        <v>32.26327584081398</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.764707397592246</v>
+        <v>10.45578692311916</v>
       </c>
       <c r="D23">
-        <v>8.600755715557003</v>
+        <v>11.75508302668039</v>
       </c>
       <c r="E23">
-        <v>16.30952764660704</v>
+        <v>33.55745378049277</v>
       </c>
       <c r="F23">
-        <v>25.70177969055787</v>
+        <v>36.27622433283636</v>
       </c>
       <c r="G23">
-        <v>3.612964016768765</v>
+        <v>1.856695392162592</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.67823424673887</v>
+        <v>21.89085004728113</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.9298188137013</v>
+        <v>146.910788922973</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.59760115395501</v>
+        <v>29.85018834585198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.47912196755574</v>
+        <v>9.387871595589205</v>
       </c>
       <c r="D24">
-        <v>8.49618074623705</v>
+        <v>10.09575601489518</v>
       </c>
       <c r="E24">
-        <v>15.67408986581282</v>
+        <v>28.25203228713499</v>
       </c>
       <c r="F24">
-        <v>26.52247990402518</v>
+        <v>26.98921518613017</v>
       </c>
       <c r="G24">
-        <v>3.620170913223572</v>
+        <v>1.911946145008381</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.42740462233064</v>
+        <v>18.47982545292369</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69.94824663686799</v>
+        <v>128.1036045673023</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.98483494762278</v>
+        <v>23.69167643944737</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.160119058634513</v>
+        <v>8.309020450113469</v>
       </c>
       <c r="D25">
-        <v>8.389619303891406</v>
+        <v>8.747574391319827</v>
       </c>
       <c r="E25">
-        <v>14.98266726669127</v>
+        <v>24.03987247624397</v>
       </c>
       <c r="F25">
-        <v>27.48957853842506</v>
+        <v>20.00701447024715</v>
       </c>
       <c r="G25">
-        <v>3.628363690831243</v>
+        <v>1.955980754336695</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.16751768712346</v>
+        <v>15.75547353853562</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>64.12568954370343</v>
+        <v>111.8383845549751</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.46593039346013</v>
+        <v>18.85091475747389</v>
       </c>
     </row>
   </sheetData>
